--- a/Board Presentation/Board Presentation Data.xlsx
+++ b/Board Presentation/Board Presentation Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mneff\Documents\Git\Math335 GitHub\M335_FA19_Neff_Mich\Board Presentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mneff\Documents\Git\Projects\Projects\Board Presentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D91A23B-28A7-4F14-8C18-D5BB78E18E9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3EDBE3-3932-495C-8173-498A2816A15C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="396" yWindow="360" windowWidth="12264" windowHeight="8592" xr2:uid="{AC144290-07EB-4C7A-BA91-9025F8479810}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AC144290-07EB-4C7A-BA91-9025F8479810}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart Data" sheetId="9" r:id="rId1"/>
@@ -42,7 +42,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1554,9 +1556,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1566,36 +1565,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1640,6 +1612,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2168,43 +2170,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="54" t="s">
         <v>374</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="M1" s="13" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="M1" s="54" t="s">
         <v>377</v>
       </c>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="AD1" s="24" t="s">
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="AD1" s="49" t="s">
         <v>397</v>
       </c>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="25"/>
-      <c r="AK1" s="25"/>
-      <c r="AL1" s="25"/>
-      <c r="AM1" s="25"/>
-      <c r="AN1" s="25"/>
-      <c r="AO1" s="25"/>
-      <c r="AP1" s="25"/>
-      <c r="AQ1" s="25"/>
-      <c r="AR1" s="25"/>
-      <c r="AS1" s="26"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="50"/>
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="50"/>
+      <c r="AK1" s="50"/>
+      <c r="AL1" s="50"/>
+      <c r="AM1" s="50"/>
+      <c r="AN1" s="50"/>
+      <c r="AO1" s="50"/>
+      <c r="AP1" s="50"/>
+      <c r="AQ1" s="50"/>
+      <c r="AR1" s="50"/>
+      <c r="AS1" s="51"/>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -2254,34 +2256,34 @@
       <c r="T2" t="s">
         <v>383</v>
       </c>
-      <c r="AD2" s="27" t="s">
+      <c r="AD2" s="52" t="s">
         <v>376</v>
       </c>
-      <c r="AE2" s="21" t="s">
+      <c r="AE2" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="21" t="s">
+      <c r="AF2" s="47"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="AI2" s="22"/>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="21" t="s">
+      <c r="AI2" s="47"/>
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="46" t="s">
         <v>189</v>
       </c>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="21" t="s">
+      <c r="AL2" s="47"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="AO2" s="22"/>
-      <c r="AP2" s="23"/>
-      <c r="AQ2" s="21" t="s">
+      <c r="AO2" s="47"/>
+      <c r="AP2" s="48"/>
+      <c r="AQ2" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="AR2" s="22"/>
-      <c r="AS2" s="23"/>
+      <c r="AR2" s="47"/>
+      <c r="AS2" s="48"/>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -2342,50 +2344,50 @@
         <f t="shared" si="1"/>
         <v>'Round 1'!G163</v>
       </c>
-      <c r="AD3" s="28"/>
-      <c r="AE3" s="14" t="s">
+      <c r="AD3" s="53"/>
+      <c r="AE3" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="AF3" s="14" t="s">
+      <c r="AF3" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="AG3" s="14" t="s">
+      <c r="AG3" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="AH3" s="14" t="s">
+      <c r="AH3" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="AI3" s="14" t="s">
+      <c r="AI3" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="AJ3" s="14" t="s">
+      <c r="AJ3" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="AK3" s="14" t="s">
+      <c r="AK3" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="AL3" s="14" t="s">
+      <c r="AL3" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="AM3" s="14" t="s">
+      <c r="AM3" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="AN3" s="14" t="s">
+      <c r="AN3" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="AO3" s="14" t="s">
+      <c r="AO3" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="AP3" s="14" t="s">
+      <c r="AP3" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="AQ3" s="14" t="s">
+      <c r="AQ3" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="AR3" s="14" t="s">
+      <c r="AR3" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="AS3" s="14" t="s">
+      <c r="AS3" s="13" t="s">
         <v>225</v>
       </c>
     </row>
@@ -2447,30 +2449,30 @@
         <f t="shared" si="2"/>
         <v>'Round 2'!G163</v>
       </c>
-      <c r="AD4" s="48">
+      <c r="AD4" s="38">
         <v>1</v>
       </c>
-      <c r="AE4" s="15">
+      <c r="AE4" s="14">
         <v>5.5</v>
       </c>
-      <c r="AF4" s="16">
+      <c r="AF4" s="15">
         <v>13.8</v>
       </c>
-      <c r="AG4" s="17">
+      <c r="AG4" s="16">
         <v>2.1</v>
       </c>
-      <c r="AH4" s="16"/>
-      <c r="AI4" s="16"/>
-      <c r="AJ4" s="16"/>
-      <c r="AK4" s="15"/>
-      <c r="AL4" s="16"/>
-      <c r="AM4" s="17"/>
-      <c r="AN4" s="16"/>
-      <c r="AO4" s="16"/>
-      <c r="AP4" s="16"/>
-      <c r="AQ4" s="15"/>
-      <c r="AR4" s="16"/>
-      <c r="AS4" s="17"/>
+      <c r="AH4" s="15"/>
+      <c r="AI4" s="15"/>
+      <c r="AJ4" s="15"/>
+      <c r="AK4" s="14"/>
+      <c r="AL4" s="15"/>
+      <c r="AM4" s="16"/>
+      <c r="AN4" s="15"/>
+      <c r="AO4" s="15"/>
+      <c r="AP4" s="15"/>
+      <c r="AQ4" s="14"/>
+      <c r="AR4" s="15"/>
+      <c r="AS4" s="16"/>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -2530,36 +2532,36 @@
         <f t="shared" si="3"/>
         <v>'Round 3'!G168</v>
       </c>
-      <c r="AD5" s="49">
+      <c r="AD5" s="39">
         <v>2</v>
       </c>
-      <c r="AE5" s="18">
+      <c r="AE5" s="17">
         <v>5.5</v>
       </c>
-      <c r="AF5" s="19">
+      <c r="AF5" s="18">
         <v>13.8</v>
       </c>
-      <c r="AG5" s="20">
+      <c r="AG5" s="19">
         <v>3.1</v>
       </c>
-      <c r="AH5" s="19">
+      <c r="AH5" s="18">
         <v>8.9</v>
       </c>
-      <c r="AI5" s="19">
+      <c r="AI5" s="18">
         <v>10.4</v>
       </c>
-      <c r="AJ5" s="19">
+      <c r="AJ5" s="18">
         <v>0.4</v>
       </c>
-      <c r="AK5" s="18"/>
-      <c r="AL5" s="19"/>
-      <c r="AM5" s="20"/>
-      <c r="AN5" s="19"/>
-      <c r="AO5" s="19"/>
-      <c r="AP5" s="19"/>
-      <c r="AQ5" s="18"/>
-      <c r="AR5" s="19"/>
-      <c r="AS5" s="20"/>
+      <c r="AK5" s="17"/>
+      <c r="AL5" s="18"/>
+      <c r="AM5" s="19"/>
+      <c r="AN5" s="18"/>
+      <c r="AO5" s="18"/>
+      <c r="AP5" s="18"/>
+      <c r="AQ5" s="17"/>
+      <c r="AR5" s="18"/>
+      <c r="AS5" s="19"/>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -2619,42 +2621,42 @@
         <f t="shared" si="4"/>
         <v>'Round 4'!G167</v>
       </c>
-      <c r="AD6" s="48">
+      <c r="AD6" s="38">
         <v>3</v>
       </c>
-      <c r="AE6" s="15">
+      <c r="AE6" s="14">
         <v>6.8</v>
       </c>
-      <c r="AF6" s="16">
+      <c r="AF6" s="15">
         <v>12.6</v>
       </c>
-      <c r="AG6" s="17">
+      <c r="AG6" s="16">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AH6" s="16">
+      <c r="AH6" s="15">
         <v>9.4</v>
       </c>
-      <c r="AI6" s="16">
+      <c r="AI6" s="15">
         <v>9.9</v>
       </c>
-      <c r="AJ6" s="16">
+      <c r="AJ6" s="15">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AK6" s="15">
+      <c r="AK6" s="14">
         <v>9.4</v>
       </c>
-      <c r="AL6" s="16">
+      <c r="AL6" s="15">
         <v>9.9</v>
       </c>
-      <c r="AM6" s="17">
+      <c r="AM6" s="16">
         <v>0.8</v>
       </c>
-      <c r="AN6" s="16"/>
-      <c r="AO6" s="16"/>
-      <c r="AP6" s="16"/>
-      <c r="AQ6" s="15"/>
-      <c r="AR6" s="16"/>
-      <c r="AS6" s="17"/>
+      <c r="AN6" s="15"/>
+      <c r="AO6" s="15"/>
+      <c r="AP6" s="15"/>
+      <c r="AQ6" s="14"/>
+      <c r="AR6" s="15"/>
+      <c r="AS6" s="16"/>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -2714,48 +2716,48 @@
         <f t="shared" si="5"/>
         <v>'Round 5'!G171</v>
       </c>
-      <c r="AD7" s="49">
+      <c r="AD7" s="39">
         <v>4</v>
       </c>
-      <c r="AE7" s="18">
+      <c r="AE7" s="17">
         <v>6.8</v>
       </c>
-      <c r="AF7" s="19">
+      <c r="AF7" s="18">
         <v>12.6</v>
       </c>
-      <c r="AG7" s="20">
+      <c r="AG7" s="19">
         <v>3.2</v>
       </c>
-      <c r="AH7" s="19">
+      <c r="AH7" s="18">
         <v>10.1</v>
       </c>
-      <c r="AI7" s="19">
+      <c r="AI7" s="18">
         <v>9.1999999999999993</v>
       </c>
-      <c r="AJ7" s="19">
+      <c r="AJ7" s="18">
         <v>1.4</v>
       </c>
-      <c r="AK7" s="18">
+      <c r="AK7" s="17">
         <v>10.1</v>
       </c>
-      <c r="AL7" s="19">
+      <c r="AL7" s="18">
         <v>9.1999999999999993</v>
       </c>
-      <c r="AM7" s="20">
+      <c r="AM7" s="19">
         <v>1.2</v>
       </c>
-      <c r="AN7" s="18">
+      <c r="AN7" s="17">
         <v>10.1</v>
       </c>
-      <c r="AO7" s="19">
+      <c r="AO7" s="18">
         <v>9.1999999999999993</v>
       </c>
-      <c r="AP7" s="19">
+      <c r="AP7" s="18">
         <v>0.8</v>
       </c>
-      <c r="AQ7" s="18"/>
-      <c r="AR7" s="19"/>
-      <c r="AS7" s="20"/>
+      <c r="AQ7" s="17"/>
+      <c r="AR7" s="18"/>
+      <c r="AS7" s="19"/>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -2815,52 +2817,52 @@
         <f t="shared" si="6"/>
         <v>'Round 6'!G170</v>
       </c>
-      <c r="AD8" s="48">
+      <c r="AD8" s="38">
         <v>5</v>
       </c>
-      <c r="AE8" s="15">
+      <c r="AE8" s="14">
         <v>7.8</v>
       </c>
-      <c r="AF8" s="16">
+      <c r="AF8" s="15">
         <v>11.6</v>
       </c>
-      <c r="AG8" s="17">
+      <c r="AG8" s="16">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AH8" s="16">
+      <c r="AH8" s="15">
         <v>10.8</v>
       </c>
-      <c r="AI8" s="16">
+      <c r="AI8" s="15">
         <v>8.5</v>
       </c>
-      <c r="AJ8" s="16">
+      <c r="AJ8" s="15">
         <v>1.5</v>
       </c>
-      <c r="AK8" s="15">
+      <c r="AK8" s="14">
         <v>10.8</v>
       </c>
-      <c r="AL8" s="16">
+      <c r="AL8" s="15">
         <v>8.5</v>
       </c>
-      <c r="AM8" s="17">
+      <c r="AM8" s="16">
         <v>1.5</v>
       </c>
-      <c r="AN8" s="15">
+      <c r="AN8" s="14">
         <v>10.8</v>
       </c>
-      <c r="AO8" s="16">
+      <c r="AO8" s="15">
         <v>8.5</v>
       </c>
-      <c r="AP8" s="16">
+      <c r="AP8" s="15">
         <v>1.3</v>
       </c>
-      <c r="AQ8" s="15">
+      <c r="AQ8" s="14">
         <v>10.8</v>
       </c>
-      <c r="AR8" s="16">
+      <c r="AR8" s="15">
         <v>8.5</v>
       </c>
-      <c r="AS8" s="17">
+      <c r="AS8" s="16">
         <v>0.9</v>
       </c>
     </row>
@@ -2922,102 +2924,102 @@
         <f t="shared" si="7"/>
         <v>'Round 7'!G172</v>
       </c>
-      <c r="AD9" s="49">
+      <c r="AD9" s="39">
         <v>6</v>
       </c>
-      <c r="AE9" s="18">
+      <c r="AE9" s="17">
         <v>7.8</v>
       </c>
-      <c r="AF9" s="19">
+      <c r="AF9" s="18">
         <v>11.6</v>
       </c>
-      <c r="AG9" s="20">
+      <c r="AG9" s="19">
         <v>3.3</v>
       </c>
-      <c r="AH9" s="19">
+      <c r="AH9" s="18">
         <v>11.5</v>
       </c>
-      <c r="AI9" s="19">
+      <c r="AI9" s="18">
         <v>7.8</v>
       </c>
-      <c r="AJ9" s="19">
+      <c r="AJ9" s="18">
         <v>1.6</v>
       </c>
-      <c r="AK9" s="18">
+      <c r="AK9" s="17">
         <v>11.5</v>
       </c>
-      <c r="AL9" s="19">
+      <c r="AL9" s="18">
         <v>7.8</v>
       </c>
-      <c r="AM9" s="20">
+      <c r="AM9" s="19">
         <v>1.6</v>
       </c>
-      <c r="AN9" s="18">
+      <c r="AN9" s="17">
         <v>11.5</v>
       </c>
-      <c r="AO9" s="19">
+      <c r="AO9" s="18">
         <v>7.8</v>
       </c>
-      <c r="AP9" s="19">
+      <c r="AP9" s="18">
         <v>1.5</v>
       </c>
-      <c r="AQ9" s="18">
+      <c r="AQ9" s="17">
         <v>11.5</v>
       </c>
-      <c r="AR9" s="19">
+      <c r="AR9" s="18">
         <v>7.8</v>
       </c>
-      <c r="AS9" s="20">
+      <c r="AS9" s="19">
         <v>1.3</v>
       </c>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="AD10" s="50">
+      <c r="AD10" s="40">
         <v>7</v>
       </c>
-      <c r="AE10" s="29">
+      <c r="AE10" s="20">
         <v>8.8000000000000007</v>
       </c>
-      <c r="AF10" s="30">
+      <c r="AF10" s="21">
         <v>10.6</v>
       </c>
-      <c r="AG10" s="31">
+      <c r="AG10" s="22">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AH10" s="30">
+      <c r="AH10" s="21">
         <v>12.2</v>
       </c>
-      <c r="AI10" s="30">
+      <c r="AI10" s="21">
         <v>7.1</v>
       </c>
-      <c r="AJ10" s="30">
+      <c r="AJ10" s="21">
         <v>1.7</v>
       </c>
-      <c r="AK10" s="29">
+      <c r="AK10" s="20">
         <v>12.2</v>
       </c>
-      <c r="AL10" s="30">
+      <c r="AL10" s="21">
         <v>7.1</v>
       </c>
-      <c r="AM10" s="31">
+      <c r="AM10" s="22">
         <v>1.6</v>
       </c>
-      <c r="AN10" s="29">
+      <c r="AN10" s="20">
         <v>12.2</v>
       </c>
-      <c r="AO10" s="30">
+      <c r="AO10" s="21">
         <v>7.1</v>
       </c>
-      <c r="AP10" s="30">
+      <c r="AP10" s="21">
         <v>1.6</v>
       </c>
-      <c r="AQ10" s="29">
+      <c r="AQ10" s="20">
         <v>12.2</v>
       </c>
-      <c r="AR10" s="30">
+      <c r="AR10" s="21">
         <v>7.1</v>
       </c>
-      <c r="AS10" s="31">
+      <c r="AS10" s="22">
         <v>1.5</v>
       </c>
     </row>
@@ -3025,25 +3027,25 @@
       <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="54" t="s">
         <v>385</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="M12" s="13" t="s">
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="M12" s="54" t="s">
         <v>386</v>
       </c>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="54"/>
+      <c r="S12" s="54"/>
+      <c r="T12" s="54"/>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -3516,15 +3518,15 @@
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="54" t="s">
         <v>387</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
       <c r="N23" s="9"/>
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
@@ -3559,14 +3561,14 @@
       </c>
       <c r="I24" s="6"/>
       <c r="K24" s="10"/>
-      <c r="O24" s="13" t="s">
+      <c r="O24" s="54" t="s">
         <v>388</v>
       </c>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="13"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="54"/>
+      <c r="R24" s="54"/>
+      <c r="S24" s="54"/>
+      <c r="T24" s="54"/>
       <c r="V24" t="s">
         <v>376</v>
       </c>
@@ -4168,37 +4170,37 @@
       </c>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="54" t="s">
         <v>390</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="M34" s="13" t="s">
+      <c r="B34" s="54"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="54"/>
+      <c r="M34" s="54" t="s">
         <v>391</v>
       </c>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="13"/>
-      <c r="T34" s="13"/>
-      <c r="AD34" s="32" t="s">
+      <c r="N34" s="54"/>
+      <c r="O34" s="54"/>
+      <c r="P34" s="54"/>
+      <c r="Q34" s="54"/>
+      <c r="R34" s="54"/>
+      <c r="S34" s="54"/>
+      <c r="T34" s="54"/>
+      <c r="AD34" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="AE34" s="32"/>
-      <c r="AF34" s="32"/>
-      <c r="AG34" s="32"/>
-      <c r="AI34" s="32" t="s">
+      <c r="AE34" s="45"/>
+      <c r="AF34" s="45"/>
+      <c r="AG34" s="45"/>
+      <c r="AI34" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="AJ34" s="32"/>
-      <c r="AK34" s="32"/>
-      <c r="AL34" s="32"/>
+      <c r="AJ34" s="45"/>
+      <c r="AK34" s="45"/>
+      <c r="AL34" s="45"/>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
@@ -4248,29 +4250,29 @@
       <c r="T35" t="s">
         <v>383</v>
       </c>
-      <c r="AD35" s="36" t="s">
+      <c r="AD35" s="26" t="s">
         <v>376</v>
       </c>
-      <c r="AE35" s="37" t="s">
+      <c r="AE35" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="AF35" s="37" t="s">
+      <c r="AF35" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="AG35" s="37" t="s">
+      <c r="AG35" s="27" t="s">
         <v>104</v>
       </c>
       <c r="AH35" s="12"/>
-      <c r="AI35" s="36" t="s">
+      <c r="AI35" s="26" t="s">
         <v>376</v>
       </c>
-      <c r="AJ35" s="37" t="s">
+      <c r="AJ35" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="AK35" s="37" t="s">
+      <c r="AK35" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="AL35" s="37" t="s">
+      <c r="AL35" s="27" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4333,28 +4335,28 @@
         <f t="shared" si="34"/>
         <v>'Round 1'!G32</v>
       </c>
-      <c r="AD36" s="33">
+      <c r="AD36" s="23">
         <v>1</v>
       </c>
-      <c r="AE36" s="44">
+      <c r="AE36" s="34">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="AF36" s="38">
+      <c r="AF36" s="28">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="AG36" s="41">
+      <c r="AG36" s="31">
         <v>9.4E-2</v>
       </c>
-      <c r="AI36" s="33">
+      <c r="AI36" s="23">
         <v>1</v>
       </c>
-      <c r="AJ36" s="38">
+      <c r="AJ36" s="28">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="AK36" s="38">
+      <c r="AK36" s="28">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="AL36" s="41">
+      <c r="AL36" s="31">
         <v>4.7E-2</v>
       </c>
     </row>
@@ -4416,28 +4418,28 @@
         <f t="shared" si="35"/>
         <v>'Round 2'!G32</v>
       </c>
-      <c r="AD37" s="35">
+      <c r="AD37" s="25">
         <v>2</v>
       </c>
-      <c r="AE37" s="44">
+      <c r="AE37" s="34">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="AF37" s="44">
+      <c r="AF37" s="34">
         <v>0.15</v>
       </c>
-      <c r="AG37" s="46">
+      <c r="AG37" s="36">
         <v>0.28399999999999997</v>
       </c>
-      <c r="AI37" s="35">
+      <c r="AI37" s="25">
         <v>2</v>
       </c>
-      <c r="AJ37" s="39">
+      <c r="AJ37" s="29">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AK37" s="39">
+      <c r="AK37" s="29">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AL37" s="42">
+      <c r="AL37" s="32">
         <v>1.6E-2</v>
       </c>
     </row>
@@ -4499,28 +4501,28 @@
         <f t="shared" si="36"/>
         <v>'Round 3'!G32</v>
       </c>
-      <c r="AD38" s="33">
+      <c r="AD38" s="23">
         <v>3</v>
       </c>
-      <c r="AE38" s="38">
+      <c r="AE38" s="28">
         <v>2.4E-2</v>
       </c>
-      <c r="AF38" s="38">
+      <c r="AF38" s="28">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="AG38" s="41">
+      <c r="AG38" s="31">
         <v>0.107</v>
       </c>
-      <c r="AI38" s="33">
+      <c r="AI38" s="23">
         <v>3</v>
       </c>
-      <c r="AJ38" s="38">
+      <c r="AJ38" s="28">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="AK38" s="38">
+      <c r="AK38" s="28">
         <v>9.4E-2</v>
       </c>
-      <c r="AL38" s="41">
+      <c r="AL38" s="31">
         <v>0.18</v>
       </c>
     </row>
@@ -4582,28 +4584,28 @@
         <f t="shared" si="37"/>
         <v>'Round 4'!G32</v>
       </c>
-      <c r="AD39" s="35">
+      <c r="AD39" s="25">
         <v>4</v>
       </c>
-      <c r="AE39" s="39">
+      <c r="AE39" s="29">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="AF39" s="39">
+      <c r="AF39" s="29">
         <v>0.124</v>
       </c>
-      <c r="AG39" s="42">
+      <c r="AG39" s="32">
         <v>0.25800000000000001</v>
       </c>
-      <c r="AI39" s="35">
+      <c r="AI39" s="25">
         <v>4</v>
       </c>
-      <c r="AJ39" s="39">
+      <c r="AJ39" s="29">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="AK39" s="39">
+      <c r="AK39" s="29">
         <v>0.157</v>
       </c>
-      <c r="AL39" s="42">
+      <c r="AL39" s="32">
         <v>0.29599999999999999</v>
       </c>
     </row>
@@ -4665,28 +4667,28 @@
         <f t="shared" si="38"/>
         <v>'Round 5'!G32</v>
       </c>
-      <c r="AD40" s="33">
+      <c r="AD40" s="23">
         <v>5</v>
       </c>
-      <c r="AE40" s="38">
+      <c r="AE40" s="28">
         <v>0.11899999999999999</v>
       </c>
-      <c r="AF40" s="38">
+      <c r="AF40" s="28">
         <v>0.222</v>
       </c>
-      <c r="AG40" s="41">
+      <c r="AG40" s="31">
         <v>0.39400000000000002</v>
       </c>
-      <c r="AI40" s="33">
+      <c r="AI40" s="23">
         <v>5</v>
       </c>
-      <c r="AJ40" s="38">
+      <c r="AJ40" s="28">
         <v>0.14699999999999999</v>
       </c>
-      <c r="AK40" s="38">
+      <c r="AK40" s="28">
         <v>0.24399999999999999</v>
       </c>
-      <c r="AL40" s="41">
+      <c r="AL40" s="31">
         <v>0.45</v>
       </c>
     </row>
@@ -4748,28 +4750,28 @@
         <f t="shared" si="39"/>
         <v>'Round 6'!G32</v>
       </c>
-      <c r="AD41" s="35">
+      <c r="AD41" s="25">
         <v>6</v>
       </c>
-      <c r="AE41" s="39">
+      <c r="AE41" s="29">
         <v>0.16200000000000001</v>
       </c>
-      <c r="AF41" s="44">
+      <c r="AF41" s="34">
         <v>0.28499999999999998</v>
       </c>
-      <c r="AG41" s="46">
+      <c r="AG41" s="36">
         <v>0.51300000000000001</v>
       </c>
-      <c r="AI41" s="35">
+      <c r="AI41" s="25">
         <v>6</v>
       </c>
-      <c r="AJ41" s="39">
+      <c r="AJ41" s="29">
         <v>0.16900000000000001</v>
       </c>
-      <c r="AK41" s="39">
+      <c r="AK41" s="29">
         <v>0.23699999999999999</v>
       </c>
-      <c r="AL41" s="42">
+      <c r="AL41" s="32">
         <v>0.495</v>
       </c>
     </row>
@@ -4831,41 +4833,41 @@
         <f t="shared" si="40"/>
         <v>'Round 7'!G32</v>
       </c>
-      <c r="AD42" s="34">
+      <c r="AD42" s="24">
         <v>7</v>
       </c>
-      <c r="AE42" s="40">
+      <c r="AE42" s="30">
         <v>0.17</v>
       </c>
-      <c r="AF42" s="45">
+      <c r="AF42" s="35">
         <v>0.26400000000000001</v>
       </c>
-      <c r="AG42" s="47">
+      <c r="AG42" s="37">
         <v>0.48899999999999999</v>
       </c>
-      <c r="AI42" s="34">
+      <c r="AI42" s="24">
         <v>7</v>
       </c>
-      <c r="AJ42" s="40">
+      <c r="AJ42" s="30">
         <v>0.17599999999999999</v>
       </c>
-      <c r="AK42" s="40">
+      <c r="AK42" s="30">
         <v>0.214</v>
       </c>
-      <c r="AL42" s="43">
+      <c r="AL42" s="33">
         <v>0.39</v>
       </c>
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="54" t="s">
         <v>392</v>
       </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="54"/>
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
@@ -5080,35 +5082,35 @@
       </c>
     </row>
     <row r="56" spans="1:31" ht="29.4" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="AD56" s="53" t="s">
+      <c r="AD56" s="43" t="s">
         <v>398</v>
       </c>
-      <c r="AE56" s="54" t="s">
+      <c r="AE56" s="44" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="57" spans="1:31" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="AD57" s="51" t="s">
+      <c r="AD57" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="AE57" s="52">
+      <c r="AE57" s="42">
         <v>1573</v>
       </c>
     </row>
     <row r="58" spans="1:31" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="13" t="s">
+      <c r="A58" s="54" t="s">
         <v>396</v>
       </c>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="AD58" s="51" t="s">
+      <c r="B58" s="54"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="54"/>
+      <c r="E58" s="54"/>
+      <c r="F58" s="54"/>
+      <c r="G58" s="54"/>
+      <c r="AD58" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="AE58" s="52">
+      <c r="AE58" s="42">
         <v>662</v>
       </c>
     </row>
@@ -5134,10 +5136,10 @@
       <c r="G59" t="s">
         <v>6</v>
       </c>
-      <c r="AD59" s="51" t="s">
+      <c r="AD59" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="AE59" s="52">
+      <c r="AE59" s="42">
         <v>664</v>
       </c>
     </row>
@@ -5163,10 +5165,10 @@
       <c r="G60" s="1">
         <v>0</v>
       </c>
-      <c r="AD60" s="51" t="s">
+      <c r="AD60" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="AE60" s="52">
+      <c r="AE60" s="42">
         <v>673</v>
       </c>
     </row>
@@ -5192,10 +5194,10 @@
       <c r="G61" s="1">
         <v>-6780</v>
       </c>
-      <c r="AD61" s="51" t="s">
+      <c r="AD61" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="AE61" s="52">
+      <c r="AE61" s="42">
         <v>707</v>
       </c>
     </row>
@@ -5344,11 +5346,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="AI34:AL34"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="AN2:AP2"/>
-    <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="AH2:AJ2"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="A58:G58"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="O24:T24"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="M34:T34"/>
     <mergeCell ref="AD1:AS1"/>
     <mergeCell ref="AD2:AD3"/>
     <mergeCell ref="AE2:AG2"/>
@@ -5357,12 +5360,11 @@
     <mergeCell ref="M1:T1"/>
     <mergeCell ref="A12:G12"/>
     <mergeCell ref="M12:T12"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="A58:G58"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="O24:T24"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="M34:T34"/>
+    <mergeCell ref="AI34:AL34"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AN2:AP2"/>
+    <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="AH2:AJ2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -56089,18 +56091,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -56218,6 +56220,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB0234F7-5C75-4BCC-98EC-159BD13EC3C4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1325A418-8A2B-4BAD-B13B-9473383FF116}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -56228,14 +56238,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB0234F7-5C75-4BCC-98EC-159BD13EC3C4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
